--- a/prog/data_processing/result/classify_abby/4.xlsx
+++ b/prog/data_processing/result/classify_abby/4.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\classify_abby\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -136,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,24 +194,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,9 +260,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,37 +505,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -584,24 +607,24 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.6506175322461863</v>
+        <v>0.65061753224618635</v>
       </c>
       <c r="C3">
-        <v>0.2103376164578857</v>
+        <v>0.21033761645788571</v>
       </c>
       <c r="D3">
-        <v>4.714702777885401E-262</v>
+        <v>4.7147027778854011E-262</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3012350644923727</v>
+        <v>0.30123506449237269</v>
       </c>
       <c r="G3">
         <v>209401</v>
@@ -616,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6506175322461863</v>
+        <v>0.65061753224618635</v>
       </c>
       <c r="L3">
-        <v>0.2103376164578858</v>
+        <v>0.21033761645788579</v>
       </c>
       <c r="M3">
-        <v>4.714702777883886E-262</v>
+        <v>4.7147027778838859E-262</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.3012350644923727</v>
+        <v>0.30123506449237269</v>
       </c>
       <c r="P3">
         <v>6963</v>
@@ -649,15 +672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.5296209362390598</v>
+        <v>0.52962093623905981</v>
       </c>
       <c r="C4">
-        <v>0.05924187247811974</v>
+        <v>5.9241872478119739E-2</v>
       </c>
       <c r="D4">
         <v>5.312786225802164E-21</v>
@@ -666,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.05924187247811963</v>
+        <v>5.9241872478119628E-2</v>
       </c>
       <c r="G4">
         <v>209401</v>
@@ -681,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5296209362390599</v>
+        <v>0.52962093623905993</v>
       </c>
       <c r="L4">
-        <v>0.05924187247811974</v>
+        <v>5.9241872478119739E-2</v>
       </c>
       <c r="M4">
         <v>5.312786225802164E-21</v>
@@ -693,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.05924187247811985</v>
+        <v>5.924187247811985E-2</v>
       </c>
       <c r="P4">
         <v>6963</v>
@@ -714,15 +737,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.670562082328891</v>
+        <v>0.67056208232889103</v>
       </c>
       <c r="C5">
-        <v>0.2590113052909088</v>
+        <v>0.25901130529090882</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -731,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3411241646577821</v>
+        <v>0.34112416465778211</v>
       </c>
       <c r="G5">
         <v>209401</v>
@@ -746,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6705620823288909</v>
+        <v>0.67056208232889092</v>
       </c>
       <c r="L5">
-        <v>0.2590113052909088</v>
+        <v>0.25901130529090882</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -758,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.3411241646577818</v>
+        <v>0.34112416465778178</v>
       </c>
       <c r="P5">
         <v>6963</v>
@@ -779,15 +802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.652957073457245</v>
+        <v>0.65295707345724496</v>
       </c>
       <c r="C6">
-        <v>0.293795870476622</v>
+        <v>0.29379587047662198</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -796,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3059141469144899</v>
+        <v>0.30591414691448993</v>
       </c>
       <c r="G6">
         <v>209401</v>
@@ -811,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6529570734572447</v>
+        <v>0.65295707345724474</v>
       </c>
       <c r="L6">
-        <v>0.2937958704766221</v>
+        <v>0.29379587047662209</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -823,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.3059141469144895</v>
+        <v>0.30591414691448948</v>
       </c>
       <c r="P6">
         <v>6963</v>
@@ -844,12 +867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.6614183244222718</v>
+        <v>0.66141832442227178</v>
       </c>
       <c r="C7">
         <v>0.2241632399384331</v>
@@ -861,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3228366488445436</v>
+        <v>0.32283664884454361</v>
       </c>
       <c r="G7">
         <v>209401</v>
@@ -876,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6614183244222718</v>
+        <v>0.66141832442227178</v>
       </c>
       <c r="L7">
-        <v>0.2241632399384332</v>
+        <v>0.22416323993843321</v>
       </c>
       <c r="M7">
         <v>5.494982104042776E-298</v>
@@ -888,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.3228366488445436</v>
+        <v>0.32283664884454361</v>
       </c>
       <c r="P7">
         <v>6963</v>
@@ -909,24 +932,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.5142759323683219</v>
+        <v>0.51427593236832192</v>
       </c>
       <c r="C8">
-        <v>0.02855186473664373</v>
+        <v>2.8551864736643728E-2</v>
       </c>
       <c r="D8">
-        <v>3.313542817746949E-05</v>
+        <v>3.3135428177469487E-5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.02855186473664384</v>
+        <v>2.8551864736643839E-2</v>
       </c>
       <c r="G8">
         <v>209401</v>
@@ -941,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5142759323683219</v>
+        <v>0.51427593236832192</v>
       </c>
       <c r="L8">
-        <v>0.02855186473664376</v>
+        <v>2.855186473664376E-2</v>
       </c>
       <c r="M8">
-        <v>3.313542817746879E-05</v>
+        <v>3.3135428177468789E-5</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02855186473664384</v>
+        <v>2.8551864736643839E-2</v>
       </c>
       <c r="P8">
         <v>6963</v>
@@ -974,24 +997,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.5105508832497218</v>
+        <v>0.51055088324972175</v>
       </c>
       <c r="C9">
-        <v>0.02110176649944351</v>
+        <v>2.1101766499443508E-2</v>
       </c>
       <c r="D9">
-        <v>0.004878762730928293</v>
+        <v>4.8787627309282927E-3</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.02110176649944351</v>
+        <v>2.1101766499443508E-2</v>
       </c>
       <c r="G9">
         <v>209401</v>
@@ -1006,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5105508832497216</v>
+        <v>0.51055088324972164</v>
       </c>
       <c r="L9">
-        <v>0.02110176649944348</v>
+        <v>2.1101766499443481E-2</v>
       </c>
       <c r="M9">
-        <v>0.00487876273092837</v>
+        <v>4.8787627309283699E-3</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02110176649944329</v>
+        <v>2.110176649944329E-2</v>
       </c>
       <c r="P9">
         <v>6963</v>
@@ -1039,24 +1062,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.5163472570968645</v>
+        <v>0.51634725709686446</v>
       </c>
       <c r="C10">
-        <v>0.03269451419372893</v>
+        <v>3.269451419372893E-2</v>
       </c>
       <c r="D10">
-        <v>1.079880025514791E-06</v>
+        <v>1.0798800255147909E-6</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.03269451419372893</v>
+        <v>3.269451419372893E-2</v>
       </c>
       <c r="G10">
         <v>209401</v>
@@ -1071,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5163472570968645</v>
+        <v>0.51634725709686446</v>
       </c>
       <c r="L10">
-        <v>0.03269451419372892</v>
+        <v>3.2694514193728923E-2</v>
       </c>
       <c r="M10">
-        <v>1.079880025514804E-06</v>
+        <v>1.0798800255148041E-6</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0.03269451419372893</v>
+        <v>3.269451419372893E-2</v>
       </c>
       <c r="P10">
         <v>6963</v>
@@ -1104,15 +1127,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.6333123277385143</v>
+        <v>0.63331232773851431</v>
       </c>
       <c r="C11">
-        <v>0.2492136329038659</v>
+        <v>0.24921363290386589</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1121,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.2666246554770286</v>
+        <v>0.26662465547702863</v>
       </c>
       <c r="G11">
         <v>209401</v>
@@ -1136,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6333123277385143</v>
+        <v>0.63331232773851431</v>
       </c>
       <c r="L11">
-        <v>0.2492136329038659</v>
+        <v>0.24921363290386589</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1148,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.2666246554770286</v>
+        <v>0.26662465547702863</v>
       </c>
       <c r="P11">
         <v>6963</v>
@@ -1169,18 +1192,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.6039008541932532</v>
+        <v>0.60390085419325323</v>
       </c>
       <c r="C12">
-        <v>0.2072610691449699</v>
+        <v>0.20726106914496989</v>
       </c>
       <c r="D12">
-        <v>2.215126556154865E-254</v>
+        <v>2.2151265561548649E-254</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1201,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6039008541932533</v>
+        <v>0.60390085419325334</v>
       </c>
       <c r="L12">
-        <v>0.2072610691449699</v>
+        <v>0.20726106914496989</v>
       </c>
       <c r="M12">
         <v>2.215126556155566E-254</v>
@@ -1213,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.2078017083865067</v>
+        <v>0.20780170838650669</v>
       </c>
       <c r="P12">
         <v>6963</v>
@@ -1234,24 +1257,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.5662147901470305</v>
+        <v>0.56621479014703047</v>
       </c>
       <c r="C13">
-        <v>0.1013285233885945</v>
+        <v>0.10132852338859449</v>
       </c>
       <c r="D13">
-        <v>1.086135468695991E-60</v>
+        <v>1.0861354686959911E-60</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>0.1324295802940609</v>
+        <v>0.13242958029406091</v>
       </c>
       <c r="G13">
         <v>209401</v>
@@ -1266,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5662147901470305</v>
+        <v>0.56621479014703047</v>
       </c>
       <c r="L13">
-        <v>0.1013285233885945</v>
+        <v>0.10132852338859449</v>
       </c>
       <c r="M13">
-        <v>1.086135468695991E-60</v>
+        <v>1.0861354686959911E-60</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.1324295802940609</v>
+        <v>0.13242958029406091</v>
       </c>
       <c r="P13">
         <v>6963</v>
@@ -1299,24 +1322,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.6186939442456629</v>
+        <v>0.61869394424566293</v>
       </c>
       <c r="C14">
         <v>0.2130406117135043</v>
       </c>
       <c r="D14">
-        <v>6.852781803198324E-269</v>
+        <v>6.8527818031983244E-269</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.2373878884913259</v>
+        <v>0.23738788849132589</v>
       </c>
       <c r="G14">
         <v>209401</v>
@@ -1331,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.618693944245663</v>
+        <v>0.61869394424566304</v>
       </c>
       <c r="L14">
-        <v>0.2130406117135042</v>
+        <v>0.21304061171350419</v>
       </c>
       <c r="M14">
-        <v>6.852781803200554E-269</v>
+        <v>6.8527818032005544E-269</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.2373878884913261</v>
+        <v>0.23738788849132611</v>
       </c>
       <c r="P14">
         <v>6963</v>
@@ -1364,24 +1387,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.6143385949147523</v>
+        <v>0.61433859491475229</v>
       </c>
       <c r="C15">
-        <v>0.2282472401978931</v>
+        <v>0.22824724019789311</v>
       </c>
       <c r="D15">
-        <v>4.650639694545174E-309</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.2286771898295046</v>
+        <v>0.22867718982950461</v>
       </c>
       <c r="G15">
         <v>209401</v>
@@ -1399,10 +1422,10 @@
         <v>0.6143385949147524</v>
       </c>
       <c r="L15">
-        <v>0.2282472401978932</v>
+        <v>0.22824724019789319</v>
       </c>
       <c r="M15">
-        <v>4.650639694541963E-309</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1429,15 +1452,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.6508469162852482</v>
+        <v>0.65084691628524816</v>
       </c>
       <c r="C16">
-        <v>0.2753452385114225</v>
+        <v>0.27534523851142251</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1446,7 +1469,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>0.3016938325704963</v>
+        <v>0.30169383257049631</v>
       </c>
       <c r="G16">
         <v>209401</v>
@@ -1461,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6508469162852482</v>
+        <v>0.65084691628524816</v>
       </c>
       <c r="L16">
-        <v>0.2753452385114225</v>
+        <v>0.27534523851142251</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1473,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0.3016938325704963</v>
+        <v>0.30169383257049631</v>
       </c>
       <c r="P16">
         <v>6963</v>
@@ -1494,18 +1517,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.5955581484864617</v>
+        <v>0.59555814848646171</v>
       </c>
       <c r="C17">
         <v>0.1762926179697141</v>
       </c>
       <c r="D17">
-        <v>1.14526312360003E-183</v>
+        <v>1.1452631236000299E-183</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1532,13 +1555,13 @@
         <v>0.1762926179697141</v>
       </c>
       <c r="M17">
-        <v>1.14526312360003E-183</v>
+        <v>1.1452631236000299E-183</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.1911162969729232</v>
+        <v>0.19111629697292321</v>
       </c>
       <c r="P17">
         <v>6963</v>
@@ -1559,24 +1582,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.5425654850467819</v>
+        <v>0.54256548504678193</v>
       </c>
       <c r="C18">
-        <v>0.08513097009356402</v>
+        <v>8.5130970093564018E-2</v>
       </c>
       <c r="D18">
-        <v>6.134109022216035E-43</v>
+        <v>6.1341090222160352E-43</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.08513097009356385</v>
+        <v>8.5130970093563851E-2</v>
       </c>
       <c r="G18">
         <v>209401</v>
@@ -1591,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.542565485046782</v>
+        <v>0.54256548504678204</v>
       </c>
       <c r="L18">
-        <v>0.08513097009356396</v>
+        <v>8.5130970093563962E-2</v>
       </c>
       <c r="M18">
-        <v>6.13410902221682E-43</v>
+        <v>6.1341090222168198E-43</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0.08513097009356407</v>
+        <v>8.5130970093564073E-2</v>
       </c>
       <c r="P18">
         <v>6963</v>
@@ -1624,15 +1647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.6282188166599108</v>
+        <v>0.62821881665991075</v>
       </c>
       <c r="C19">
-        <v>0.2370504268762652</v>
+        <v>0.23705042687626521</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1656,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6282188166599109</v>
+        <v>0.62821881665991086</v>
       </c>
       <c r="L19">
-        <v>0.2370504268762652</v>
+        <v>0.23705042687626521</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1668,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.2564376333198217</v>
+        <v>0.25643763331982172</v>
       </c>
       <c r="P19">
         <v>6963</v>
@@ -1689,15 +1712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.7046803761967785</v>
+        <v>0.70468037619677848</v>
       </c>
       <c r="C20">
-        <v>0.3368689573538244</v>
+        <v>0.33686895735382438</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1706,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.409360752393557</v>
+        <v>0.40936075239355701</v>
       </c>
       <c r="G20">
         <v>209401</v>
@@ -1721,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7046803761967786</v>
+        <v>0.70468037619677859</v>
       </c>
       <c r="L20">
-        <v>0.3368689573538245</v>
+        <v>0.33686895735382449</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1733,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0.4093607523935572</v>
+        <v>0.40936075239355718</v>
       </c>
       <c r="P20">
         <v>6963</v>
@@ -1754,18 +1777,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.6020788845726694</v>
+        <v>0.60207888457266945</v>
       </c>
       <c r="C21">
-        <v>0.1956704640249224</v>
+        <v>0.19567046402492241</v>
       </c>
       <c r="D21">
-        <v>1.566541829493161E-226</v>
+        <v>1.5665418294931609E-226</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -1786,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6020788845726696</v>
+        <v>0.60207888457266956</v>
       </c>
       <c r="L21">
-        <v>0.1956704640249224</v>
+        <v>0.19567046402492241</v>
       </c>
       <c r="M21">
-        <v>1.566541829493161E-226</v>
+        <v>1.5665418294931609E-226</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.2041577691453391</v>
+        <v>0.20415776914533909</v>
       </c>
       <c r="P21">
         <v>6963</v>
@@ -1819,18 +1842,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.568067615511429</v>
+        <v>0.56806761551142904</v>
       </c>
       <c r="C22">
-        <v>0.1261629059149502</v>
+        <v>0.12616290591495019</v>
       </c>
       <c r="D22">
-        <v>5.830067207270169E-94</v>
+        <v>5.8300672072701694E-94</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1851,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.568067615511429</v>
+        <v>0.56806761551142904</v>
       </c>
       <c r="L22">
-        <v>0.1261629059149502</v>
+        <v>0.12616290591495019</v>
       </c>
       <c r="M22">
-        <v>5.830067207270169E-94</v>
+        <v>5.8300672072701694E-94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1884,15 +1907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23">
-        <v>0.5678513684564389</v>
+        <v>0.56785136845643891</v>
       </c>
       <c r="C23">
-        <v>0.1298811576413378</v>
+        <v>0.12988115764133781</v>
       </c>
       <c r="D23">
         <v>1.415650386247968E-99</v>
@@ -1901,7 +1924,7 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>0.1357027369128778</v>
+        <v>0.13570273691287779</v>
       </c>
       <c r="G23">
         <v>209401</v>
@@ -1916,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5678513684564389</v>
+        <v>0.56785136845643891</v>
       </c>
       <c r="L23">
-        <v>0.1298811576413378</v>
+        <v>0.12988115764133781</v>
       </c>
       <c r="M23">
         <v>1.415650386247968E-99</v>
@@ -1928,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.1357027369128778</v>
+        <v>0.13570273691287779</v>
       </c>
       <c r="P23">
         <v>6963</v>
@@ -1949,18 +1972,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0.5924048656042087</v>
+        <v>0.59240486560420869</v>
       </c>
       <c r="C24">
-        <v>0.1838131468194751</v>
+        <v>0.18381314681947511</v>
       </c>
       <c r="D24">
-        <v>9.341768533836524E-200</v>
+        <v>9.3417685338365236E-200</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -1984,16 +2007,16 @@
         <v>0.5924048656042088</v>
       </c>
       <c r="L24">
-        <v>0.1838131468194751</v>
+        <v>0.18381314681947511</v>
       </c>
       <c r="M24">
-        <v>9.341768533836524E-200</v>
+        <v>9.3417685338365236E-200</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0.1848097312084176</v>
+        <v>0.18480973120841759</v>
       </c>
       <c r="P24">
         <v>6963</v>
@@ -2014,24 +2037,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25">
-        <v>0.5162508011343295</v>
+        <v>0.51625080113432953</v>
       </c>
       <c r="C25">
-        <v>0.03240595457236595</v>
+        <v>3.2405954572365947E-2</v>
       </c>
       <c r="D25">
-        <v>1.391444833176063E-06</v>
+        <v>1.391444833176063E-6</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.03250160226865906</v>
+        <v>3.2501602268659058E-2</v>
       </c>
       <c r="G25">
         <v>209401</v>
@@ -2046,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5162508011343295</v>
+        <v>0.51625080113432953</v>
       </c>
       <c r="L25">
-        <v>0.03240595457236602</v>
+        <v>3.2405954572366023E-2</v>
       </c>
       <c r="M25">
-        <v>1.391444833175978E-06</v>
+        <v>1.3914448331759779E-6</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03250160226865906</v>
+        <v>3.2501602268659058E-2</v>
       </c>
       <c r="P25">
         <v>6963</v>
@@ -2079,18 +2102,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26">
-        <v>0.6250236784801853</v>
+        <v>0.62502367848018525</v>
       </c>
       <c r="C26">
-        <v>0.2270405223604771</v>
+        <v>0.22704052236047709</v>
       </c>
       <c r="D26">
-        <v>9.140183809296041E-306</v>
+        <v>9.1401838092960411E-306</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2111,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.6250236784801853</v>
+        <v>0.62502367848018525</v>
       </c>
       <c r="L26">
-        <v>0.2270405223604771</v>
+        <v>0.22704052236047709</v>
       </c>
       <c r="M26">
-        <v>9.140183809296041E-306</v>
+        <v>9.1401838092960411E-306</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2144,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2152,16 +2175,16 @@
         <v>0.6148931530016386</v>
       </c>
       <c r="C27">
-        <v>0.2107346908803042</v>
+        <v>0.21073469088030419</v>
       </c>
       <c r="D27">
-        <v>4.72824953891428E-263</v>
+        <v>4.7282495389142802E-263</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.2297863060032772</v>
+        <v>0.22978630600327721</v>
       </c>
       <c r="G27">
         <v>209401</v>
@@ -2176,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.6148931530016385</v>
+        <v>0.61489315300163849</v>
       </c>
       <c r="L27">
-        <v>0.2107346908803041</v>
+        <v>0.21073469088030411</v>
       </c>
       <c r="M27">
-        <v>4.728249538915801E-263</v>
+        <v>4.7282495389158013E-263</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0.229786306003277</v>
+        <v>0.22978630600327701</v>
       </c>
       <c r="P27">
         <v>6963</v>
@@ -2209,18 +2232,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28">
-        <v>0.6023591304024472</v>
+        <v>0.60235913040244715</v>
       </c>
       <c r="C28">
-        <v>0.1922158614080874</v>
+        <v>0.19221586140808741</v>
       </c>
       <c r="D28">
-        <v>1.49443044043241E-218</v>
+        <v>1.4944304404324101E-218</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2241,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.6023591304024472</v>
+        <v>0.60235913040244715</v>
       </c>
       <c r="L28">
-        <v>0.1922158614080874</v>
+        <v>0.19221586140808741</v>
       </c>
       <c r="M28">
-        <v>1.49443044043241E-218</v>
+        <v>1.4944304404324101E-218</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2274,15 +2297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29">
-        <v>0.6610262816886807</v>
+        <v>0.66102628168868072</v>
       </c>
       <c r="C29">
-        <v>0.322051263018605</v>
+        <v>0.32205126301860498</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2291,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.3220525633773614</v>
+        <v>0.32205256337736138</v>
       </c>
       <c r="G29">
         <v>209401</v>
@@ -2306,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.6610262816886807</v>
+        <v>0.66102628168868072</v>
       </c>
       <c r="L29">
-        <v>0.322051263018605</v>
+        <v>0.32205126301860498</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2318,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.3220525633773614</v>
+        <v>0.32205256337736138</v>
       </c>
       <c r="P29">
         <v>6963</v>

--- a/prog/data_processing/result/classify_abby/4.xlsx
+++ b/prog/data_processing/result/classify_abby/4.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\classify_abby\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -141,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,35 +189,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,9 +244,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,10 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,10 +312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,42 +487,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
@@ -548,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -607,24 +584,24 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.65061753224618635</v>
+        <v>0.6506175322461863</v>
       </c>
       <c r="C3">
-        <v>0.21033761645788571</v>
+        <v>0.2103376164578857</v>
       </c>
       <c r="D3">
-        <v>4.7147027778854011E-262</v>
+        <v>4.714702777885401E-262</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.30123506449237269</v>
+        <v>0.3012350644923727</v>
       </c>
       <c r="G3">
         <v>209401</v>
@@ -639,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.65061753224618635</v>
+        <v>0.6506175322461863</v>
       </c>
       <c r="L3">
-        <v>0.21033761645788579</v>
+        <v>0.2103376164578858</v>
       </c>
       <c r="M3">
-        <v>4.7147027778838859E-262</v>
+        <v>4.714702777883886E-262</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.30123506449237269</v>
+        <v>0.3012350644923727</v>
       </c>
       <c r="P3">
         <v>6963</v>
@@ -672,15 +649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.52962093623905981</v>
+        <v>0.5296209362390598</v>
       </c>
       <c r="C4">
-        <v>5.9241872478119739E-2</v>
+        <v>0.05924187247811974</v>
       </c>
       <c r="D4">
         <v>5.312786225802164E-21</v>
@@ -689,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5.9241872478119628E-2</v>
+        <v>0.05924187247811963</v>
       </c>
       <c r="G4">
         <v>209401</v>
@@ -704,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.52962093623905993</v>
+        <v>0.5296209362390599</v>
       </c>
       <c r="L4">
-        <v>5.9241872478119739E-2</v>
+        <v>0.05924187247811974</v>
       </c>
       <c r="M4">
         <v>5.312786225802164E-21</v>
@@ -716,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>5.924187247811985E-2</v>
+        <v>0.05924187247811985</v>
       </c>
       <c r="P4">
         <v>6963</v>
@@ -737,15 +714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.67056208232889103</v>
+        <v>0.670562082328891</v>
       </c>
       <c r="C5">
-        <v>0.25901130529090882</v>
+        <v>0.2590113052909088</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -754,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.34112416465778211</v>
+        <v>0.3411241646577821</v>
       </c>
       <c r="G5">
         <v>209401</v>
@@ -769,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.67056208232889092</v>
+        <v>0.6705620823288909</v>
       </c>
       <c r="L5">
-        <v>0.25901130529090882</v>
+        <v>0.2590113052909088</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -781,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.34112416465778178</v>
+        <v>0.3411241646577818</v>
       </c>
       <c r="P5">
         <v>6963</v>
@@ -802,15 +779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.65295707345724496</v>
+        <v>0.652957073457245</v>
       </c>
       <c r="C6">
-        <v>0.29379587047662198</v>
+        <v>0.293795870476622</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -819,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.30591414691448993</v>
+        <v>0.3059141469144899</v>
       </c>
       <c r="G6">
         <v>209401</v>
@@ -834,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.65295707345724474</v>
+        <v>0.6529570734572447</v>
       </c>
       <c r="L6">
-        <v>0.29379587047662209</v>
+        <v>0.2937958704766221</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -846,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.30591414691448948</v>
+        <v>0.3059141469144895</v>
       </c>
       <c r="P6">
         <v>6963</v>
@@ -867,12 +844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.66141832442227178</v>
+        <v>0.6614183244222718</v>
       </c>
       <c r="C7">
         <v>0.2241632399384331</v>
@@ -884,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.32283664884454361</v>
+        <v>0.3228366488445436</v>
       </c>
       <c r="G7">
         <v>209401</v>
@@ -899,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.66141832442227178</v>
+        <v>0.6614183244222718</v>
       </c>
       <c r="L7">
-        <v>0.22416323993843321</v>
+        <v>0.2241632399384332</v>
       </c>
       <c r="M7">
         <v>5.494982104042776E-298</v>
@@ -911,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.32283664884454361</v>
+        <v>0.3228366488445436</v>
       </c>
       <c r="P7">
         <v>6963</v>
@@ -932,24 +909,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.51427593236832192</v>
+        <v>0.5142759323683219</v>
       </c>
       <c r="C8">
-        <v>2.8551864736643728E-2</v>
+        <v>0.02855186473664373</v>
       </c>
       <c r="D8">
-        <v>3.3135428177469487E-5</v>
+        <v>3.313542817746949E-05</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2.8551864736643839E-2</v>
+        <v>0.02855186473664384</v>
       </c>
       <c r="G8">
         <v>209401</v>
@@ -964,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.51427593236832192</v>
+        <v>0.5142759323683219</v>
       </c>
       <c r="L8">
-        <v>2.855186473664376E-2</v>
+        <v>0.02855186473664376</v>
       </c>
       <c r="M8">
-        <v>3.3135428177468789E-5</v>
+        <v>3.313542817746879E-05</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2.8551864736643839E-2</v>
+        <v>0.02855186473664384</v>
       </c>
       <c r="P8">
         <v>6963</v>
@@ -997,24 +974,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.51055088324972175</v>
+        <v>0.5105508832497218</v>
       </c>
       <c r="C9">
-        <v>2.1101766499443508E-2</v>
+        <v>0.02110176649944351</v>
       </c>
       <c r="D9">
-        <v>4.8787627309282927E-3</v>
+        <v>0.004878762730928293</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2.1101766499443508E-2</v>
+        <v>0.02110176649944351</v>
       </c>
       <c r="G9">
         <v>209401</v>
@@ -1029,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.51055088324972164</v>
+        <v>0.5105508832497216</v>
       </c>
       <c r="L9">
-        <v>2.1101766499443481E-2</v>
+        <v>0.02110176649944348</v>
       </c>
       <c r="M9">
-        <v>4.8787627309283699E-3</v>
+        <v>0.00487876273092837</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>2.110176649944329E-2</v>
+        <v>0.02110176649944329</v>
       </c>
       <c r="P9">
         <v>6963</v>
@@ -1062,24 +1039,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.51634725709686446</v>
+        <v>0.5163472570968645</v>
       </c>
       <c r="C10">
-        <v>3.269451419372893E-2</v>
+        <v>0.03269451419372893</v>
       </c>
       <c r="D10">
-        <v>1.0798800255147909E-6</v>
+        <v>1.079880025514791E-06</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3.269451419372893E-2</v>
+        <v>0.03269451419372893</v>
       </c>
       <c r="G10">
         <v>209401</v>
@@ -1094,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.51634725709686446</v>
+        <v>0.5163472570968645</v>
       </c>
       <c r="L10">
-        <v>3.2694514193728923E-2</v>
+        <v>0.03269451419372892</v>
       </c>
       <c r="M10">
-        <v>1.0798800255148041E-6</v>
+        <v>1.079880025514804E-06</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>3.269451419372893E-2</v>
+        <v>0.03269451419372893</v>
       </c>
       <c r="P10">
         <v>6963</v>
@@ -1127,15 +1104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.63331232773851431</v>
+        <v>0.6333123277385143</v>
       </c>
       <c r="C11">
-        <v>0.24921363290386589</v>
+        <v>0.2492136329038659</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1144,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.26662465547702863</v>
+        <v>0.2666246554770286</v>
       </c>
       <c r="G11">
         <v>209401</v>
@@ -1159,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.63331232773851431</v>
+        <v>0.6333123277385143</v>
       </c>
       <c r="L11">
-        <v>0.24921363290386589</v>
+        <v>0.2492136329038659</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1171,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.26662465547702863</v>
+        <v>0.2666246554770286</v>
       </c>
       <c r="P11">
         <v>6963</v>
@@ -1192,18 +1169,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.60390085419325323</v>
+        <v>0.6039008541932532</v>
       </c>
       <c r="C12">
-        <v>0.20726106914496989</v>
+        <v>0.2072610691449699</v>
       </c>
       <c r="D12">
-        <v>2.2151265561548649E-254</v>
+        <v>2.215126556154865E-254</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1224,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.60390085419325334</v>
+        <v>0.6039008541932533</v>
       </c>
       <c r="L12">
-        <v>0.20726106914496989</v>
+        <v>0.2072610691449699</v>
       </c>
       <c r="M12">
         <v>2.215126556155566E-254</v>
@@ -1236,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.20780170838650669</v>
+        <v>0.2078017083865067</v>
       </c>
       <c r="P12">
         <v>6963</v>
@@ -1257,24 +1234,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.56621479014703047</v>
+        <v>0.5662147901470305</v>
       </c>
       <c r="C13">
-        <v>0.10132852338859449</v>
+        <v>0.1013285233885945</v>
       </c>
       <c r="D13">
-        <v>1.0861354686959911E-60</v>
+        <v>1.086135468695991E-60</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>0.13242958029406091</v>
+        <v>0.1324295802940609</v>
       </c>
       <c r="G13">
         <v>209401</v>
@@ -1289,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.56621479014703047</v>
+        <v>0.5662147901470305</v>
       </c>
       <c r="L13">
-        <v>0.10132852338859449</v>
+        <v>0.1013285233885945</v>
       </c>
       <c r="M13">
-        <v>1.0861354686959911E-60</v>
+        <v>1.086135468695991E-60</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.13242958029406091</v>
+        <v>0.1324295802940609</v>
       </c>
       <c r="P13">
         <v>6963</v>
@@ -1322,24 +1299,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.61869394424566293</v>
+        <v>0.6186939442456629</v>
       </c>
       <c r="C14">
         <v>0.2130406117135043</v>
       </c>
       <c r="D14">
-        <v>6.8527818031983244E-269</v>
+        <v>6.852781803198324E-269</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.23738788849132589</v>
+        <v>0.2373878884913259</v>
       </c>
       <c r="G14">
         <v>209401</v>
@@ -1354,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.61869394424566304</v>
+        <v>0.618693944245663</v>
       </c>
       <c r="L14">
-        <v>0.21304061171350419</v>
+        <v>0.2130406117135042</v>
       </c>
       <c r="M14">
-        <v>6.8527818032005544E-269</v>
+        <v>6.852781803200554E-269</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.23738788849132611</v>
+        <v>0.2373878884913261</v>
       </c>
       <c r="P14">
         <v>6963</v>
@@ -1387,24 +1364,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.61433859491475229</v>
+        <v>0.6143385949147523</v>
       </c>
       <c r="C15">
-        <v>0.22824724019789311</v>
+        <v>0.2282472401978931</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4.650639694545174E-309</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.22867718982950461</v>
+        <v>0.2286771898295046</v>
       </c>
       <c r="G15">
         <v>209401</v>
@@ -1422,10 +1399,10 @@
         <v>0.6143385949147524</v>
       </c>
       <c r="L15">
-        <v>0.22824724019789319</v>
+        <v>0.2282472401978932</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.650639694541963E-309</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1452,15 +1429,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.65084691628524816</v>
+        <v>0.6508469162852482</v>
       </c>
       <c r="C16">
-        <v>0.27534523851142251</v>
+        <v>0.2753452385114225</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1469,7 +1446,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>0.30169383257049631</v>
+        <v>0.3016938325704963</v>
       </c>
       <c r="G16">
         <v>209401</v>
@@ -1484,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.65084691628524816</v>
+        <v>0.6508469162852482</v>
       </c>
       <c r="L16">
-        <v>0.27534523851142251</v>
+        <v>0.2753452385114225</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1496,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0.30169383257049631</v>
+        <v>0.3016938325704963</v>
       </c>
       <c r="P16">
         <v>6963</v>
@@ -1517,18 +1494,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.59555814848646171</v>
+        <v>0.5955581484864617</v>
       </c>
       <c r="C17">
         <v>0.1762926179697141</v>
       </c>
       <c r="D17">
-        <v>1.1452631236000299E-183</v>
+        <v>1.14526312360003E-183</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1555,13 +1532,13 @@
         <v>0.1762926179697141</v>
       </c>
       <c r="M17">
-        <v>1.1452631236000299E-183</v>
+        <v>1.14526312360003E-183</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.19111629697292321</v>
+        <v>0.1911162969729232</v>
       </c>
       <c r="P17">
         <v>6963</v>
@@ -1582,24 +1559,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.54256548504678193</v>
+        <v>0.5425654850467819</v>
       </c>
       <c r="C18">
-        <v>8.5130970093564018E-2</v>
+        <v>0.08513097009356402</v>
       </c>
       <c r="D18">
-        <v>6.1341090222160352E-43</v>
+        <v>6.134109022216035E-43</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>8.5130970093563851E-2</v>
+        <v>0.08513097009356385</v>
       </c>
       <c r="G18">
         <v>209401</v>
@@ -1614,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.54256548504678204</v>
+        <v>0.542565485046782</v>
       </c>
       <c r="L18">
-        <v>8.5130970093563962E-2</v>
+        <v>0.08513097009356396</v>
       </c>
       <c r="M18">
-        <v>6.1341090222168198E-43</v>
+        <v>6.13410902221682E-43</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>8.5130970093564073E-2</v>
+        <v>0.08513097009356407</v>
       </c>
       <c r="P18">
         <v>6963</v>
@@ -1647,15 +1624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.62821881665991075</v>
+        <v>0.6282188166599108</v>
       </c>
       <c r="C19">
-        <v>0.23705042687626521</v>
+        <v>0.2370504268762652</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1679,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.62821881665991086</v>
+        <v>0.6282188166599109</v>
       </c>
       <c r="L19">
-        <v>0.23705042687626521</v>
+        <v>0.2370504268762652</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1691,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.25643763331982172</v>
+        <v>0.2564376333198217</v>
       </c>
       <c r="P19">
         <v>6963</v>
@@ -1712,15 +1689,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.70468037619677848</v>
+        <v>0.7046803761967785</v>
       </c>
       <c r="C20">
-        <v>0.33686895735382438</v>
+        <v>0.3368689573538244</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1729,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0.40936075239355701</v>
+        <v>0.409360752393557</v>
       </c>
       <c r="G20">
         <v>209401</v>
@@ -1744,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.70468037619677859</v>
+        <v>0.7046803761967786</v>
       </c>
       <c r="L20">
-        <v>0.33686895735382449</v>
+        <v>0.3368689573538245</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1756,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0.40936075239355718</v>
+        <v>0.4093607523935572</v>
       </c>
       <c r="P20">
         <v>6963</v>
@@ -1777,18 +1754,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.60207888457266945</v>
+        <v>0.6020788845726694</v>
       </c>
       <c r="C21">
-        <v>0.19567046402492241</v>
+        <v>0.1956704640249224</v>
       </c>
       <c r="D21">
-        <v>1.5665418294931609E-226</v>
+        <v>1.566541829493161E-226</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -1809,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.60207888457266956</v>
+        <v>0.6020788845726696</v>
       </c>
       <c r="L21">
-        <v>0.19567046402492241</v>
+        <v>0.1956704640249224</v>
       </c>
       <c r="M21">
-        <v>1.5665418294931609E-226</v>
+        <v>1.566541829493161E-226</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.20415776914533909</v>
+        <v>0.2041577691453391</v>
       </c>
       <c r="P21">
         <v>6963</v>
@@ -1842,18 +1819,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.56806761551142904</v>
+        <v>0.568067615511429</v>
       </c>
       <c r="C22">
-        <v>0.12616290591495019</v>
+        <v>0.1261629059149502</v>
       </c>
       <c r="D22">
-        <v>5.8300672072701694E-94</v>
+        <v>5.830067207270169E-94</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1874,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.56806761551142904</v>
+        <v>0.568067615511429</v>
       </c>
       <c r="L22">
-        <v>0.12616290591495019</v>
+        <v>0.1261629059149502</v>
       </c>
       <c r="M22">
-        <v>5.8300672072701694E-94</v>
+        <v>5.830067207270169E-94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1907,15 +1884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23">
-        <v>0.56785136845643891</v>
+        <v>0.5678513684564389</v>
       </c>
       <c r="C23">
-        <v>0.12988115764133781</v>
+        <v>0.1298811576413378</v>
       </c>
       <c r="D23">
         <v>1.415650386247968E-99</v>
@@ -1924,7 +1901,7 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>0.13570273691287779</v>
+        <v>0.1357027369128778</v>
       </c>
       <c r="G23">
         <v>209401</v>
@@ -1939,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.56785136845643891</v>
+        <v>0.5678513684564389</v>
       </c>
       <c r="L23">
-        <v>0.12988115764133781</v>
+        <v>0.1298811576413378</v>
       </c>
       <c r="M23">
         <v>1.415650386247968E-99</v>
@@ -1951,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.13570273691287779</v>
+        <v>0.1357027369128778</v>
       </c>
       <c r="P23">
         <v>6963</v>
@@ -1972,18 +1949,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24">
-        <v>0.59240486560420869</v>
+        <v>0.5924048656042087</v>
       </c>
       <c r="C24">
-        <v>0.18381314681947511</v>
+        <v>0.1838131468194751</v>
       </c>
       <c r="D24">
-        <v>9.3417685338365236E-200</v>
+        <v>9.341768533836524E-200</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2007,16 +1984,16 @@
         <v>0.5924048656042088</v>
       </c>
       <c r="L24">
-        <v>0.18381314681947511</v>
+        <v>0.1838131468194751</v>
       </c>
       <c r="M24">
-        <v>9.3417685338365236E-200</v>
+        <v>9.341768533836524E-200</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0.18480973120841759</v>
+        <v>0.1848097312084176</v>
       </c>
       <c r="P24">
         <v>6963</v>
@@ -2037,24 +2014,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25">
-        <v>0.51625080113432953</v>
+        <v>0.5162508011343295</v>
       </c>
       <c r="C25">
-        <v>3.2405954572365947E-2</v>
+        <v>0.03240595457236595</v>
       </c>
       <c r="D25">
-        <v>1.391444833176063E-6</v>
+        <v>1.391444833176063E-06</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>3.2501602268659058E-2</v>
+        <v>0.03250160226865906</v>
       </c>
       <c r="G25">
         <v>209401</v>
@@ -2069,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.51625080113432953</v>
+        <v>0.5162508011343295</v>
       </c>
       <c r="L25">
-        <v>3.2405954572366023E-2</v>
+        <v>0.03240595457236602</v>
       </c>
       <c r="M25">
-        <v>1.3914448331759779E-6</v>
+        <v>1.391444833175978E-06</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>3.2501602268659058E-2</v>
+        <v>0.03250160226865906</v>
       </c>
       <c r="P25">
         <v>6963</v>
@@ -2102,18 +2079,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26">
-        <v>0.62502367848018525</v>
+        <v>0.6250236784801853</v>
       </c>
       <c r="C26">
-        <v>0.22704052236047709</v>
+        <v>0.2270405223604771</v>
       </c>
       <c r="D26">
-        <v>9.1401838092960411E-306</v>
+        <v>9.140183809296041E-306</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2134,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.62502367848018525</v>
+        <v>0.6250236784801853</v>
       </c>
       <c r="L26">
-        <v>0.22704052236047709</v>
+        <v>0.2270405223604771</v>
       </c>
       <c r="M26">
-        <v>9.1401838092960411E-306</v>
+        <v>9.140183809296041E-306</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2167,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2175,16 +2152,16 @@
         <v>0.6148931530016386</v>
       </c>
       <c r="C27">
-        <v>0.21073469088030419</v>
+        <v>0.2107346908803042</v>
       </c>
       <c r="D27">
-        <v>4.7282495389142802E-263</v>
+        <v>4.72824953891428E-263</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.22978630600327721</v>
+        <v>0.2297863060032772</v>
       </c>
       <c r="G27">
         <v>209401</v>
@@ -2199,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.61489315300163849</v>
+        <v>0.6148931530016385</v>
       </c>
       <c r="L27">
-        <v>0.21073469088030411</v>
+        <v>0.2107346908803041</v>
       </c>
       <c r="M27">
-        <v>4.7282495389158013E-263</v>
+        <v>4.728249538915801E-263</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0.22978630600327701</v>
+        <v>0.229786306003277</v>
       </c>
       <c r="P27">
         <v>6963</v>
@@ -2232,18 +2209,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28">
-        <v>0.60235913040244715</v>
+        <v>0.6023591304024472</v>
       </c>
       <c r="C28">
-        <v>0.19221586140808741</v>
+        <v>0.1922158614080874</v>
       </c>
       <c r="D28">
-        <v>1.4944304404324101E-218</v>
+        <v>1.49443044043241E-218</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2264,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.60235913040244715</v>
+        <v>0.6023591304024472</v>
       </c>
       <c r="L28">
-        <v>0.19221586140808741</v>
+        <v>0.1922158614080874</v>
       </c>
       <c r="M28">
-        <v>1.4944304404324101E-218</v>
+        <v>1.49443044043241E-218</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2297,15 +2274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29">
-        <v>0.66102628168868072</v>
+        <v>0.6610262816886807</v>
       </c>
       <c r="C29">
-        <v>0.32205126301860498</v>
+        <v>0.322051263018605</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2314,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.32205256337736138</v>
+        <v>0.3220525633773614</v>
       </c>
       <c r="G29">
         <v>209401</v>
@@ -2329,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.66102628168868072</v>
+        <v>0.6610262816886807</v>
       </c>
       <c r="L29">
-        <v>0.32205126301860498</v>
+        <v>0.322051263018605</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2341,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.32205256337736138</v>
+        <v>0.3220525633773614</v>
       </c>
       <c r="P29">
         <v>6963</v>
